--- a/经济走势.xlsx
+++ b/经济走势.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F49FED03-14F4-4CAA-87A4-4A3095D38A1D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F2E3070C-60BE-4886-B9C6-2F36A93AA58A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>上海房租下跌10%  物价降低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在说降成本、减税，实际现在主要的不是这些，真正成本高的是资金价格和地价（房价房租）。
+　　资金价格就是利率。经济下滑就要降息，减缓债务压力，外部条件大家都知道，美联储紧缩，内部主要就是房地产问题。就是美联储紧缩完，再次宽松，也不会QE了，只会降息，那时，中国怎么降息？降了就是去炒资产价格，所以，中国现在主要问题是降房价，赶快出台房产税，准备未来降低利率，房产税出了，降息后，资金就去股市，支持实体经济融资。所以，未来看中国利率高点，外部看美联储紧缩完成，内部看房产税，房产税出台就是要准备降低市场利率了，实际现在就可以在一些省份试点房产税了，再实行开始前，一定要限售，5年或10年不准卖出二手房，彻底关死，防止二手房卖了冲击人民币汇率。
+　　现在已经进入最后的货币消灭阶段，就是资产价格下跌，也是风险最大的时候，因为资产是商业银行的主要抵押物，资产价格下跌就是银行债务危机爆发的原因，这个风险实际是无法防住的，货币紧缩就是直接作用在资产价格上，现在来看，企业倒闭速度快于房价房租下跌速度，一般企业生产周期一个循环也就3--6个月，一年半就是2--3个循环，企业还没有进入寒冬就倒闭了，这个是政策失误，现在看专家说的“L”底是错误的，日本当年快速打爆房地产是正确的，中国经济下滑幅度会随时间的拖延爆发更大的危机。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -62,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +82,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,13 +111,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -387,20 +403,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.77734375" customWidth="1"/>
-    <col min="3" max="3" width="32.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.75" customWidth="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1"/>
+    <col min="5" max="5" width="100.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,7 +428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -419,7 +436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43203</v>
       </c>
@@ -430,18 +447,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="199.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43207</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43212</v>
       </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
